--- a/data/trans_orig/IP34_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP34_2023-Habitat-trans_orig.xlsx
@@ -670,73 +670,75 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>994</v>
+          <t>Menos de 2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>314</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>229992</v>
+        <v>514</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>91,93%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>262</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>180195</v>
+        <v>1044</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>576</v>
+        <v>3</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>410187</v>
+        <v>1559</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>92,69%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>15,33%</t>
         </is>
       </c>
     </row>
@@ -744,70 +746,70 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Extranjero</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>17622</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>9830</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>27453</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -815,70 +817,70 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Extranjero</t>
+          <t>994.0</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2571</v>
+        <v>12184</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>81,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>2327</v>
+        <v>15743</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>78,41%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4898</v>
+        <v>27926</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>84,67%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>98,45%</t>
         </is>
       </c>
     </row>
@@ -890,10 +892,10 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
@@ -911,10 +913,10 @@
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
@@ -932,10 +934,10 @@
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
@@ -959,70 +961,72 @@
           <t>2/10</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>994</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>103368</v>
+        <v>8813</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>90,2%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>84,97%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>96396</v>
+        <v>7105</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>87,89%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>287</v>
+        <v>28</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>199762</v>
+        <v>15918</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,43%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>87,73%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>93,99%</t>
+          <t>10,7%</t>
         </is>
       </c>
     </row>
@@ -1030,70 +1034,70 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Extranjero</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>8813</v>
+        <v>2416</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>7105</v>
+        <v>394</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>15918</v>
+        <v>2809</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -1101,70 +1105,70 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Extranjero</t>
+          <t>994.0</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2416</v>
+        <v>103368</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>90,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>84,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>394</v>
+        <v>96396</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,89%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5</v>
+        <v>287</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2809</v>
+        <v>199762</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>87,73%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>93,99%</t>
         </is>
       </c>
     </row>
@@ -1242,73 +1246,75 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>994</v>
+          <t>10/50</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>228</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>166605</v>
+        <v>17622</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>156214</v>
+        <v>9830</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>86,63%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>445</v>
+        <v>40</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>322818</v>
+        <v>27453</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>8,62%</t>
         </is>
       </c>
     </row>
@@ -1316,70 +1322,70 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Extranjero</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>7299</v>
+        <v>2571</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>13058</v>
+        <v>2327</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>20358</v>
+        <v>4898</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>2,24%</t>
         </is>
       </c>
     </row>
@@ -1387,70 +1393,70 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Extranjero</t>
+          <t>994.0</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>314</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1112</v>
+        <v>229992</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>91,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>2670</v>
+        <v>180195</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5</v>
+        <v>576</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3782</v>
+        <v>410187</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>94,66%</t>
         </is>
       </c>
     </row>
@@ -1462,10 +1468,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1483,10 +1489,10 @@
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1504,10 +1510,10 @@
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>346958</v>
+        <v>442538</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1528,73 +1534,75 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>994</v>
+          <t>mas de 50</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>12184</v>
+        <v>4643</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>81,36%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>15743</v>
+        <v>9214</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>78,41%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>27926</v>
+        <v>13857</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>84,67%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>6,07%</t>
         </is>
       </c>
     </row>
@@ -1602,18 +1610,18 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Extranjero</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>514</v>
+        <v>858</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1623,49 +1631,49 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>1044</v>
+        <v>0</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>858</v>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>21,59%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>1559</v>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>1,55%</t>
-        </is>
-      </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -1673,70 +1681,70 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Extranjero</t>
+          <t>994.0</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0</v>
+        <v>167707</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
+        <v>159521</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>0</v>
+        <v>327229</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,7%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>97,37%</t>
         </is>
       </c>
     </row>
@@ -1748,10 +1756,10 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
@@ -1769,10 +1777,10 @@
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>16787</v>
+        <v>168735</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
@@ -1790,10 +1798,10 @@
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>47</v>
+        <v>452</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>29485</v>
+        <v>341943</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
@@ -1814,73 +1822,75 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>994</v>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>217</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>167707</v>
+        <v>7299</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>159521</v>
+        <v>13058</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>91,16%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
-        <v>430</v>
+        <v>28</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>327229</v>
+        <v>20358</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>8,45%</t>
         </is>
       </c>
     </row>
@@ -1888,70 +1898,70 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Extranjero</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>4643</v>
+        <v>1112</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>9214</v>
+        <v>2670</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>13857</v>
+        <v>3782</v>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>2,67%</t>
         </is>
       </c>
     </row>
@@ -1959,70 +1969,70 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Extranjero</t>
+          <t>994.0</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>858</v>
+        <v>166605</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>156214</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,85%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>86,63%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>858</v>
+        <v>322818</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>95,06%</t>
         </is>
       </c>
     </row>
@@ -2034,10 +2044,10 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
@@ -2055,10 +2065,10 @@
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>168735</v>
+        <v>171943</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
@@ -2076,10 +2086,10 @@
         </is>
       </c>
       <c r="M23" s="2" t="n">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>341943</v>
+        <v>346958</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
@@ -2103,70 +2113,72 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
-        <v>994</v>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>909</v>
+        <v>58</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>679856</v>
+        <v>38892</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>873</v>
+        <v>62</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>608069</v>
+        <v>40252</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>91,12%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
-        <v>1782</v>
+        <v>120</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1287925</v>
+        <v>79144</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>6,81%</t>
         </is>
       </c>
     </row>
@@ -2174,70 +2186,70 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Extranjero</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>38892</v>
+        <v>6956</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>40252</v>
+        <v>5391</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>79144</v>
+        <v>12347</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -2245,70 +2257,70 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Extranjero</t>
+          <t>994.0</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>10</v>
+        <v>909</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>6956</v>
+        <v>679856</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>8</v>
+        <v>873</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>5391</v>
+        <v>608069</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
-        <v>18</v>
+        <v>1782</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>12347</v>
+        <v>1287925</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>94,47%</t>
         </is>
       </c>
     </row>
